--- a/ArticleManage/main_working_folder/output_folders/Data 97 High performance microspherical activated/Data97_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 97 High performance microspherical activated/Data97_all_graphs_excel.xlsx
@@ -3087,7 +3087,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3164,173 +3164,117 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2004</v>
+        <v>0.2508</v>
       </c>
       <c r="B10" s="0">
-        <v>8.5259</v>
+        <v>8.6699</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2508</v>
+        <v>0.5</v>
       </c>
       <c r="B11" s="0">
-        <v>8.6699</v>
+        <v>8.702</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.3003</v>
+        <v>0.6195</v>
       </c>
       <c r="B12" s="0">
-        <v>8.6059</v>
+        <v>8.729</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3506</v>
+        <v>0.7186</v>
       </c>
       <c r="B13" s="0">
-        <v>8.5803</v>
+        <v>8.7087</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4025</v>
+        <v>0.0559</v>
       </c>
       <c r="B14" s="0">
-        <v>8.7883</v>
+        <v>8.3377</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.5</v>
+        <v>0.023</v>
       </c>
       <c r="B15" s="0">
-        <v>8.702</v>
+        <v>7.9254</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5307</v>
+        <v>0.0312</v>
       </c>
       <c r="B16" s="0">
-        <v>8.6699</v>
+        <v>8.1545</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6195</v>
+        <v>0.0444</v>
       </c>
       <c r="B17" s="0">
-        <v>8.729</v>
+        <v>8.2919</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6808</v>
+        <v>0.3509</v>
       </c>
       <c r="B18" s="0">
-        <v>8.6699</v>
+        <v>8.6584</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.7186</v>
+        <v>0.4002</v>
       </c>
       <c r="B19" s="0">
-        <v>8.7087</v>
+        <v>8.6584</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.8216</v>
+        <v>0.8192</v>
       </c>
       <c r="B20" s="0">
-        <v>8.7809</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.9207</v>
+        <v>0.9187</v>
       </c>
       <c r="B21" s="0">
-        <v>8.773</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.9458</v>
+        <v>0.9499</v>
       </c>
       <c r="B22" s="0">
-        <v>8.693</v>
+        <v>8.7958</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.973</v>
+        <v>0.9745</v>
       </c>
       <c r="B23" s="0">
-        <v>8.7829</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.0559</v>
-      </c>
-      <c r="B24" s="0">
-        <v>8.3377</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0444</v>
-      </c>
-      <c r="B25" s="0">
-        <v>8.2919</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.023</v>
-      </c>
-      <c r="B26" s="0">
-        <v>7.9254</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0312</v>
-      </c>
-      <c r="B27" s="0">
-        <v>8.2919</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.3804</v>
-      </c>
-      <c r="B28" s="0">
-        <v>8.7958</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.8307</v>
-      </c>
-      <c r="B29" s="0">
-        <v>8.7958</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.9318</v>
-      </c>
-      <c r="B30" s="0">
-        <v>8.7958</v>
-      </c>
-    </row>
-    <row r="31"/>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="24"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 97 High performance microspherical activated/Data97_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 97 High performance microspherical activated/Data97_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="SC700P" sheetId="1" r:id="rId1"/>
-    <sheet name="SC800" sheetId="2" r:id="rId4"/>
-    <sheet name="SH800" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 SC700P  0-1-0-35 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 SC800  0-1-0-35 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 SH800  0-1-0-35 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -105,7 +105,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SC700P</a:t>
+              <a:t>Izoterma adsorpcji probki SC700P z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SC700P!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 SC700P  0-1-0-35 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SC700P!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 SC700P  0-1-0-35 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -182,6 +182,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -251,6 +253,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="35"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -415,7 +419,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SC800</a:t>
+              <a:t>Izoterma adsorpcji probki SC800 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -474,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SC800!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 SC800  0-1-0-35 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SC800!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 SC800  0-1-0-35 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -492,6 +496,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -561,6 +567,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="35"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -725,7 +733,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SH800</a:t>
+              <a:t>Izoterma adsorpcji probki SH800 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -784,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SH800!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 SH800  0-1-0-35 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SH800!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 SH800  0-1-0-35 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -802,6 +810,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -871,6 +881,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="35"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 97 High performance microspherical activated/Data97_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 97 High performance microspherical activated/Data97_all_graphs_excel.xlsx
@@ -3295,6 +3295,194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.1029</v>
+      </c>
+      <c r="B3" s="0">
+        <v>16.9696</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.2531</v>
+      </c>
+      <c r="B4" s="0">
+        <v>17.4776</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.3506</v>
+      </c>
+      <c r="B5" s="0">
+        <v>17.6676</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.6007</v>
+      </c>
+      <c r="B6" s="0">
+        <v>17.8542</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.7202</v>
+      </c>
+      <c r="B7" s="0">
+        <v>17.8204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8192</v>
+      </c>
+      <c r="B8" s="0">
+        <v>17.8207</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.9207</v>
+      </c>
+      <c r="B9" s="0">
+        <v>17.8665</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.9778</v>
+      </c>
+      <c r="B10" s="0">
+        <v>17.8665</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1545</v>
+      </c>
+      <c r="B11" s="0">
+        <v>17.1793</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1282</v>
+      </c>
+      <c r="B12" s="0">
+        <v>17.0877</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0772</v>
+      </c>
+      <c r="B13" s="0">
+        <v>16.767</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0546</v>
+      </c>
+      <c r="B14" s="0">
+        <v>16.5151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0435</v>
+      </c>
+      <c r="B15" s="0">
+        <v>16.3089</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0283</v>
+      </c>
+      <c r="B16" s="0">
+        <v>16.0569</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0181</v>
+      </c>
+      <c r="B17" s="0">
+        <v>15.7592</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.0082</v>
+      </c>
+      <c r="B18" s="0">
+        <v>15.1178</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.0004</v>
+      </c>
+      <c r="B19" s="0">
+        <v>13.4457</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0016</v>
+      </c>
+      <c r="B20" s="0">
+        <v>14.339</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>-0.0008</v>
+      </c>
+      <c r="B21" s="0">
+        <v>11.2467</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.9528</v>
+      </c>
+      <c r="B22" s="0">
+        <v>17.8665</v>
+      </c>
+    </row>
+    <row r="23"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3303,7 +3491,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -3316,202 +3504,202 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1046</v>
+        <v>0.0005</v>
       </c>
       <c r="B3" s="0">
-        <v>16.9696</v>
+        <v>16.4928</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.2004</v>
+        <v>0.0001</v>
       </c>
       <c r="B4" s="0">
-        <v>17.3495</v>
+        <v>9.094</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.2531</v>
+        <v>0.0029</v>
       </c>
       <c r="B5" s="0">
-        <v>17.4776</v>
+        <v>18.9404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.3019</v>
+        <v>-0.0005</v>
       </c>
       <c r="B6" s="0">
-        <v>17.5687</v>
+        <v>11.2229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.3506</v>
+        <v>0.04</v>
       </c>
       <c r="B7" s="0">
-        <v>17.6676</v>
+        <v>25.1253</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.4017</v>
+        <v>0.0736</v>
       </c>
       <c r="B8" s="0">
-        <v>17.7378</v>
+        <v>27.0016</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6007</v>
+        <v>0.0983</v>
       </c>
       <c r="B9" s="0">
-        <v>17.8542</v>
+        <v>27.9315</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6824</v>
+        <v>0.1292</v>
       </c>
       <c r="B10" s="0">
-        <v>17.8384</v>
+        <v>28.7693</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.7202</v>
+        <v>0.1556</v>
       </c>
       <c r="B11" s="0">
-        <v>17.8204</v>
+        <v>29.2974</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.8348</v>
+        <v>0.2626</v>
       </c>
       <c r="B12" s="0">
-        <v>17.7749</v>
+        <v>30.5477</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.8192</v>
+        <v>0.5004</v>
       </c>
       <c r="B13" s="0">
-        <v>17.8207</v>
+        <v>31.5281</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.9203</v>
+        <v>0.5991</v>
       </c>
       <c r="B14" s="0">
-        <v>17.8207</v>
+        <v>31.6679</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.9343</v>
+        <v>0.7996</v>
       </c>
       <c r="B15" s="0">
-        <v>17.8207</v>
+        <v>31.9523</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.9778</v>
+        <v>0.8986</v>
       </c>
       <c r="B16" s="0">
-        <v>17.8665</v>
+        <v>32.1525</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.9515</v>
+        <v>0.6993</v>
       </c>
       <c r="B17" s="0">
-        <v>17.9123</v>
+        <v>31.839</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5308</v>
+        <v>0.9745</v>
       </c>
       <c r="B18" s="0">
-        <v>17.7749</v>
+        <v>32.572</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5004</v>
+        <v>0.9499</v>
       </c>
       <c r="B19" s="0">
-        <v>17.7291</v>
+        <v>32.3887</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1545</v>
+        <v>0.348</v>
       </c>
       <c r="B20" s="0">
-        <v>17.1793</v>
+        <v>31.0602</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1282</v>
+        <v>0.3155</v>
       </c>
       <c r="B21" s="0">
-        <v>17.0877</v>
+        <v>30.877</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0781</v>
+        <v>0.0493</v>
       </c>
       <c r="B22" s="0">
-        <v>16.767</v>
+        <v>25.7461</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0551</v>
+        <v>0.03</v>
       </c>
       <c r="B23" s="0">
-        <v>16.4921</v>
+        <v>24.303</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0435</v>
+        <v>0.0189</v>
       </c>
       <c r="B24" s="0">
-        <v>16.3089</v>
+        <v>23.1348</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0288</v>
+        <v>0.009</v>
       </c>
       <c r="B25" s="0">
-        <v>16.1257</v>
+        <v>21.4398</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0173</v>
+        <v>0.0074</v>
       </c>
       <c r="B26" s="0">
-        <v>15.805</v>
+        <v>20.8901</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0099</v>
+        <v>0.0049</v>
       </c>
       <c r="B27" s="0">
-        <v>15.2094</v>
+        <v>20.1113</v>
       </c>
     </row>
     <row r="28">
@@ -3519,23 +3707,23 @@
         <v>0.0008</v>
       </c>
       <c r="B28" s="0">
-        <v>13.5144</v>
+        <v>18.233</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="B29" s="0">
-        <v>14.3848</v>
+        <v>13.5144</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.0016</v>
+        <v>0.2112</v>
       </c>
       <c r="B30" s="0">
-        <v>11.2238</v>
+        <v>30.0524</v>
       </c>
     </row>
     <row r="31"/>
@@ -3543,304 +3731,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>-0.0007</v>
-      </c>
-      <c r="B3" s="0">
-        <v>16.5844</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0001</v>
-      </c>
-      <c r="B4" s="0">
-        <v>9.094</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0037</v>
-      </c>
-      <c r="B5" s="0">
-        <v>18.9404</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>-0.0005</v>
-      </c>
-      <c r="B6" s="0">
-        <v>11.2229</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0429</v>
-      </c>
-      <c r="B7" s="0">
-        <v>25.1482</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.0727</v>
-      </c>
-      <c r="B8" s="0">
-        <v>26.9329</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.0974</v>
-      </c>
-      <c r="B9" s="0">
-        <v>27.8857</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1292</v>
-      </c>
-      <c r="B10" s="0">
-        <v>28.7693</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1556</v>
-      </c>
-      <c r="B11" s="0">
-        <v>29.2974</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2067</v>
-      </c>
-      <c r="B12" s="0">
-        <v>30.0258</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2626</v>
-      </c>
-      <c r="B13" s="0">
-        <v>30.5477</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.4009</v>
-      </c>
-      <c r="B14" s="0">
-        <v>31.2835</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B15" s="0">
-        <v>31.4822</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.5346</v>
-      </c>
-      <c r="B16" s="0">
-        <v>31.6502</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.5991</v>
-      </c>
-      <c r="B17" s="0">
-        <v>31.6679</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.7996</v>
-      </c>
-      <c r="B18" s="0">
-        <v>31.9523</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.8365</v>
-      </c>
-      <c r="B19" s="0">
-        <v>32.0885</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.8986</v>
-      </c>
-      <c r="B20" s="0">
-        <v>32.1525</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.7001</v>
-      </c>
-      <c r="B21" s="0">
-        <v>31.7932</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.6861</v>
-      </c>
-      <c r="B22" s="0">
-        <v>31.8848</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.9745</v>
-      </c>
-      <c r="B23" s="0">
-        <v>32.572</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.9499</v>
-      </c>
-      <c r="B24" s="0">
-        <v>32.3887</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.9376</v>
-      </c>
-      <c r="B25" s="0">
-        <v>32.3887</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.3492</v>
-      </c>
-      <c r="B26" s="0">
-        <v>31.0602</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.3155</v>
-      </c>
-      <c r="B27" s="0">
-        <v>30.877</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.3032</v>
-      </c>
-      <c r="B28" s="0">
-        <v>30.7853</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0485</v>
-      </c>
-      <c r="B29" s="0">
-        <v>25.7461</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0304</v>
-      </c>
-      <c r="B30" s="0">
-        <v>24.2801</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0189</v>
-      </c>
-      <c r="B31" s="0">
-        <v>23.1348</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.009</v>
-      </c>
-      <c r="B32" s="0">
-        <v>21.4398</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0074</v>
-      </c>
-      <c r="B33" s="0">
-        <v>20.8901</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0049</v>
-      </c>
-      <c r="B34" s="0">
-        <v>20.1113</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.0008</v>
-      </c>
-      <c r="B35" s="0">
-        <v>18.233</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0</v>
-      </c>
-      <c r="B36" s="0">
-        <v>13.5144</v>
-      </c>
-    </row>
-    <row r="37"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/ArticleManage/main_working_folder/output_folders/Data 97 High performance microspherical activated/Data97_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 97 High performance microspherical activated/Data97_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 SC700P  0-1-0-35 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 SC800  0-1-0-35 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 SH800  0-1-0-35 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 SC700P  0&amp;1&amp;0&amp;35 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 SC800  0&amp;1&amp;0&amp;35 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 SH800  0&amp;1&amp;0&amp;35 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 SC700P  0-1-0-35 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 SC700P  0&amp;1&amp;0&amp;35 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 SC700P  0-1-0-35 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 SC700P  0&amp;1&amp;0&amp;35 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -478,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 SC800  0-1-0-35 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 SC800  0&amp;1&amp;0&amp;35 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 SC800  0-1-0-35 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 SC800  0&amp;1&amp;0&amp;35 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -792,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 SH800  0-1-0-35 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 SH800  0&amp;1&amp;0&amp;35 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 SH800  0-1-0-35 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 SH800  0&amp;1&amp;0&amp;35 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
